--- a/data/trans_orig/Q61A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Dificultad-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>24.28840939552525</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>28.90212975018035</v>
+        <v>28.90212975018034</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>8.202191253651305</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.183012817862046</v>
+        <v>6.242883645881584</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>15.22880436805569</v>
+        <v>15.22698977328127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19.47791869309685</v>
+        <v>19.42033183960463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20.95350259169665</v>
+        <v>21.52735419018924</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.414718016501637</v>
+        <v>6.349128303881747</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.66985494466148</v>
+        <v>16.72527317321588</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>21.33480080686732</v>
+        <v>21.26940211645324</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>22.33710531057754</v>
+        <v>23.09555685838735</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.66654107049857</v>
+        <v>6.748058045016843</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16.50465091823081</v>
+        <v>16.3727818472455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21.17382702394238</v>
+        <v>21.11860803238675</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>23.05248289598607</v>
+        <v>23.27158741903208</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.66176631182907</v>
+        <v>13.99795623951704</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.59299538826127</v>
+        <v>19.21316877185889</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.86094260045026</v>
+        <v>23.81249695861519</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.11473550654683</v>
+        <v>31.55099616758877</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.96114339881903</v>
+        <v>11.79755768415615</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.5669812453507</v>
+        <v>24.25825008529233</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>27.59936863995356</v>
+        <v>27.33268491103468</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>39.8324068267306</v>
+        <v>38.02129247840197</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.56600885784801</v>
+        <v>11.92363177345276</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20.22666613136602</v>
+        <v>20.10830988679182</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24.96685363743696</v>
+        <v>24.66242732552656</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>32.12544769635712</v>
+        <v>32.42735669160262</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.007964557589747</v>
+        <v>2.990740942392388</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.53866072122811</v>
+        <v>10.50326155568103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14.01146642966861</v>
+        <v>14.04491558698574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.69807078885884</v>
+        <v>12.46374556413167</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.245888581538586</v>
+        <v>5.249666386581454</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>14.10845424957155</v>
+        <v>13.98067346250801</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.30712105516173</v>
+        <v>17.37379382084104</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>16.94608513950399</v>
+        <v>17.28061993844311</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.31653756122962</v>
+        <v>4.329249276660383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12.60155021993752</v>
+        <v>12.50877081017569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16.36236194287881</v>
+        <v>16.25457813402758</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>16.40259536065531</v>
+        <v>16.36589888821164</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.82209093300505</v>
+        <v>4.733514026887669</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>15.02438817570427</v>
+        <v>14.67577838468024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20.1672025556439</v>
+        <v>19.92341126903416</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29.46398789858308</v>
+        <v>29.18041978274764</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.524551397194751</v>
+        <v>8.487638565593</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.8744954575172</v>
+        <v>20.60276768960534</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>25.56405803505643</v>
+        <v>25.77409269771807</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>23.97682328546409</v>
+        <v>24.25025742821545</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>6.264484725262369</v>
+        <v>6.218200959549303</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16.3295200392112</v>
+        <v>16.23160818704828</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21.68664512516225</v>
+        <v>21.55397854166883</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>23.53333333744605</v>
+        <v>23.45853907873501</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>16.66307465813146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.34243786345446</v>
+        <v>13.34243786345447</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>9.58086028801994</v>
@@ -953,7 +953,7 @@
         <v>20.98014895173311</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>18.8590831485462</v>
+        <v>18.85908314854619</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>7.440820598343367</v>
@@ -965,7 +965,7 @@
         <v>18.83735204088115</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>16.71124004260296</v>
+        <v>16.71124004260295</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.68547391014775</v>
+        <v>3.762091974603431</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.862597177695305</v>
+        <v>10.37670963616468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.97613792069543</v>
+        <v>12.20628745705378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.123825623571779</v>
+        <v>9.276310858718588</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.749152242237819</v>
+        <v>4.691638462787159</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.42478652876721</v>
+        <v>13.39584066203907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>15.60273874069079</v>
+        <v>15.48958110250408</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>13.98098181668238</v>
+        <v>13.98303686910887</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.674060614369183</v>
+        <v>4.989074102660675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12.87183743599053</v>
+        <v>12.6915893049674</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14.76992834934522</v>
+        <v>14.89808087161852</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.28650773998146</v>
+        <v>13.16581711386043</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.789594107267659</v>
+        <v>8.522166283407184</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.07440606592303</v>
+        <v>19.75693653564064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.14636679350534</v>
+        <v>23.85723593535337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.27122720255847</v>
+        <v>20.11447482599609</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.94866008862049</v>
+        <v>24.7399499127063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.83765685369712</v>
+        <v>23.42555437793611</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>32.34071380794391</v>
+        <v>32.05834290420834</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>29.06492495932614</v>
+        <v>28.6459839213522</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>13.40321735386708</v>
+        <v>17.01401224569778</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>20.18207260999845</v>
+        <v>19.52080194255889</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24.91034967281367</v>
+        <v>24.56462400700582</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>23.07596499582689</v>
+        <v>22.73241912398943</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>17.79710859146501</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>21.87022545499344</v>
+        <v>21.87022545499343</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.125066146928409</v>
+        <v>3.07556550900734</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.506547206217242</v>
+        <v>7.528010155467978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.676137744387267</v>
+        <v>8.168448903167487</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.4262622231071</v>
+        <v>9.029634261750687</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.606668807943501</v>
+        <v>2.740280111699431</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>12.1021766525947</v>
+        <v>12.26015109284203</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>12.30186374189446</v>
+        <v>12.79831527228157</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.7534893879064</v>
+        <v>18.37830994470671</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.884850740773537</v>
+        <v>3.759175089881067</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>10.79531461231026</v>
+        <v>10.49638629176127</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12.29717651267623</v>
+        <v>11.96176357783358</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>15.71020554280946</v>
+        <v>15.8113193184108</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>23.02073987064391</v>
+        <v>20.85005146211244</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.03436681615571</v>
+        <v>15.35096191217211</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.75015356117244</v>
+        <v>25.47247864653599</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>28.03367983551952</v>
+        <v>29.1942917876657</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>12.60681422855547</v>
+        <v>12.59675046978402</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.62472920335389</v>
+        <v>27.00308181389924</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>33.12661041706825</v>
+        <v>32.47472277902516</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>42.733347893223</v>
+        <v>41.68223386825616</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>12.60577534188151</v>
+        <v>13.6332308009063</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.84790165702924</v>
+        <v>18.23900374738639</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25.29266664530907</v>
+        <v>25.20375455398079</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>30.82976249573595</v>
+        <v>30.93994633929236</v>
       </c>
     </row>
     <row r="16">
@@ -1237,7 +1237,7 @@
         <v>21.11035904716272</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>22.07796674925311</v>
+        <v>22.0779667492531</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.984291567336995</v>
+        <v>5.064992898940806</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.66911561705723</v>
+        <v>13.63553626315362</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18.08596293631409</v>
+        <v>18.03203451749771</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17.41835773926289</v>
+        <v>17.37376473608517</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.248249031699535</v>
+        <v>6.224960143483972</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>20.62657412107449</v>
+        <v>20.57942803194726</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>20.50378799661118</v>
+        <v>20.7862072572916</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.973048944590899</v>
+        <v>6.006859049695855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15.18378240575003</v>
+        <v>15.10387643455101</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19.87060282326898</v>
+        <v>19.69903500777409</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>19.96114997665251</v>
+        <v>20.01807567915431</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.652067682022391</v>
+        <v>8.550752592587486</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.6100285486695</v>
+        <v>16.53115695388449</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.44046208678612</v>
+        <v>21.50714849884022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.36592999596703</v>
+        <v>24.86694294897804</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.17205175828395</v>
+        <v>11.72874627091938</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>25.2358621549907</v>
+        <v>25.18758985850762</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>27.05740619132534</v>
+        <v>27.39396645602812</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.580827184813042</v>
+        <v>8.579479388936335</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.65289082256305</v>
+        <v>17.49284191042864</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22.71650468654071</v>
+        <v>22.62671016567476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>24.80323408247392</v>
+        <v>24.82507142793088</v>
       </c>
     </row>
     <row r="19">
